--- a/SuppXLS/Scen_IND_RENEW_BOUND.xlsx
+++ b/SuppXLS/Scen_IND_RENEW_BOUND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD430C4-865F-4705-A5CE-0D8548380AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF30E8-C818-43DE-AFC9-34AD8D22A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Trans - Insert</t>
-  </si>
-  <si>
-    <t>REG1</t>
   </si>
   <si>
     <t>COM_BNDNET</t>
@@ -747,7 +744,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>3</v>
@@ -828,25 +825,25 @@
         <v>13</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="G4" s="7">
         <f>$G21*(1-$Q4)</f>
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="9">
         <v>0.1</v>
@@ -854,45 +851,28 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G5" s="7">
         <f>$I21*(1-$Q5)</f>
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -902,7 +882,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -912,13 +892,13 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -944,13 +924,13 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -960,7 +940,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -970,7 +950,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
